--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -73,10 +73,10 @@
     <t>view/example/index.vue</t>
   </si>
   <si>
-    <t>tab</t>
-  </si>
-  <si>
-    <t>view/appTab/appTab.vue</t>
+    <t>article</t>
+  </si>
+  <si>
+    <t>view/article/index.vue</t>
   </si>
   <si>
     <t>about</t>
@@ -532,7 +532,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>

--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>view/about/index.vue</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>view/system/state.vue</t>
   </si>
 </sst>
 </file>
@@ -576,6 +582,29 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>view/system/state.vue</t>
+  </si>
+  <si>
+    <t>animation</t>
+  </si>
+  <si>
+    <t>view/animation/index.vue</t>
   </si>
 </sst>
 </file>
@@ -605,6 +611,29 @@
         <v>24</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,54 @@
     <t>view/superAdmin/index.vue</t>
   </si>
   <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>view/superAdmin/authority/authority.vue</t>
+  </si>
+  <si>
+    <t>dictionaryDetail</t>
+  </si>
+  <si>
+    <t>dictionaryDetail/:id</t>
+  </si>
+  <si>
+    <t>view/superAdmin/dictionary/sysDictionaryDetail.vue</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>view/superAdmin/menu/menu.vue</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>view/superAdmin/api/api.vue</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>view/superAdmin/user/user.vue</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>view/superAdmin/dictionary/sysDictionary.vue</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>view/superAdmin/operation/sysOperationRecord.vue</t>
+  </si>
+  <si>
     <t>person</t>
   </si>
   <si>
@@ -67,16 +115,124 @@
     <t>view/systemTools/index.vue</t>
   </si>
   <si>
+    <t>autoPkg</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>view/systemTools/autoPkg/autoPkg.vue</t>
+  </si>
+  <si>
+    <t>autoCodeEdit</t>
+  </si>
+  <si>
+    <t>autoCodeEdit/:id</t>
+  </si>
+  <si>
+    <t>view/systemTools/autoCode/index.vue</t>
+  </si>
+  <si>
+    <t>autoCodeAdmin</t>
+  </si>
+  <si>
+    <t>view/systemTools/autoCodeAdmin/index.vue</t>
+  </si>
+  <si>
+    <t>autoCode</t>
+  </si>
+  <si>
+    <t>formCreate</t>
+  </si>
+  <si>
+    <t>view/systemTools/formCreate/index.vue</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>view/systemTools/system/system.vue</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
     <t>view/example/index.vue</t>
   </si>
   <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>view/example/excel/excel.vue</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>view/example/upload/upload.vue</t>
+  </si>
+  <si>
+    <t>simpleUploader</t>
+  </si>
+  <si>
+    <t>view/example/simpleUploader/simpleUploader</t>
+  </si>
+  <si>
+    <t>breakpoint</t>
+  </si>
+  <si>
+    <t>view/example/breakpoint/breakpoint.vue</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>view/example/customer/customer.vue</t>
+  </si>
+  <si>
     <t>article</t>
   </si>
   <si>
     <t>view/article/index.vue</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>view/article/comment/comment.vue</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>view/article/tag/tag.vue</t>
+  </si>
+  <si>
+    <t>articles</t>
+  </si>
+  <si>
+    <t>view/article/articles/article.vue</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>view/mobile/index.vue</t>
+  </si>
+  <si>
+    <t>mobileUser</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>view/mobile/user/mobileUser.vue</t>
   </si>
   <si>
     <t>about</t>
@@ -475,7 +631,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -484,154 +640,683 @@
         <v>13</v>
       </c>
       <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
       <c r="F5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
-        <v>26</v>
+      <c r="G33" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
